--- a/result/TrailATRf/summary_NIKKEI_M5_2017-2024_2.xlsx
+++ b/result/TrailATRf/summary_NIKKEI_M5_2017-2024_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:U1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,144 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-77746</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-40628</v>
+      </c>
+      <c r="N2" t="n">
+        <v>35529</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-37118</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-827</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1948</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.044724028258606</v>
+      </c>
+      <c r="S2" t="n">
+        <v>63.45795668771273</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1866644149849419</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NIKKEI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-158978</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-79535</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21272</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-79443</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-639</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1206</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-3.734627679578789</v>
+      </c>
+      <c r="S3" t="n">
+        <v>73.76398299158711</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-14</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.3297292215118466</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
